--- a/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14740"/>
+    <workbookView windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -45,7 +45,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>难度类型</t>
   </si>
   <si>
     <t>正常模式</t>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>是否有第二幕</t>
   </si>
   <si>
     <t>难度1</t>
@@ -119,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -168,6 +174,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -183,41 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +229,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -237,53 +274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,175 +310,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +503,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +537,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -526,30 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,156 +598,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1151,29 +1164,29 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1001</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>1002</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1190,7 +1203,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1232,7 +1245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,8 +1255,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1251,7 +1267,7 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1265,7 +1281,7 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1279,7 +1295,7 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1293,7 +1309,7 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1307,7 +1323,7 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1321,7 +1337,7 @@
         <v>10006</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1335,7 +1351,7 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1349,7 +1365,7 @@
         <v>10008</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1363,7 +1379,7 @@
         <v>10009</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1383,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1423,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1433,8 +1449,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1442,7 +1461,7 @@
         <v>20001</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -1456,7 +1475,7 @@
         <v>20002</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1470,7 +1489,7 @@
         <v>20003</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1484,7 +1503,7 @@
         <v>20004</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1498,7 +1517,7 @@
         <v>20005</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1512,7 +1531,7 @@
         <v>20006</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1526,7 +1545,7 @@
         <v>20007</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>7</v>

--- a/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960" activeTab="2"/>
+    <workbookView windowWidth="29140" windowHeight="14740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>难度9</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>开爽模式N1</t>
@@ -125,8 +131,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -167,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,16 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +203,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,9 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,67 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -316,169 +322,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,32 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -581,6 +561,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,85 +604,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,58 +691,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1397,10 +1403,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1439,57 +1445,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
-        <v>20001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1542,15 +1542,29 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>20007</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ModelDifficultyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14740" activeTab="2"/>
+    <workbookView windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>开爽模式</t>
-  </si>
-  <si>
-    <t>##Desc</t>
   </si>
   <si>
     <t>WaveNumber</t>
@@ -132,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,29 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -204,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +188,30 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,47 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +254,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -328,31 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,31 +514,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,16 +550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,162 +575,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1118,7 +1115,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1209,7 +1206,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1225,13 +1222,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
@@ -1248,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1262,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1273,7 +1270,7 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1287,7 +1284,7 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1301,7 +1298,7 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1315,7 +1312,7 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1329,7 +1326,7 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1343,7 +1340,7 @@
         <v>10006</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1357,7 +1354,7 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1371,7 +1368,7 @@
         <v>10008</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1385,7 +1382,7 @@
         <v>10009</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1406,10 +1403,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="13.3076923076923" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1419,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
@@ -1442,15 +1442,15 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
@@ -1464,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1475,7 +1475,7 @@
         <v>20001</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1489,7 +1489,7 @@
         <v>20002</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1503,7 +1503,7 @@
         <v>20003</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1517,7 +1517,7 @@
         <v>20004</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1531,7 +1531,7 @@
         <v>20005</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1545,7 +1545,7 @@
         <v>20006</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1559,7 +1559,7 @@
         <v>20007</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>7</v>
